--- a/data/trans_dic/P27-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas</t>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>38,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46,22%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43,34%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 46,46</t>
+          <t>19,3; 51,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 44,6</t>
+          <t>19,44; 54,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,32; 45,53</t>
+          <t>17,09; 53,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,02; 59,93</t>
+          <t>9,0; 39,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,17; 74,47</t>
+          <t>28,76; 55,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,37; 67,59</t>
+          <t>40,98; 70,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,54; 49,68</t>
+          <t>39,16; 69,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,21; 56,46</t>
+          <t>25,58; 56,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,01; 51,38</t>
+          <t>27,84; 49,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>33,54; 57,24</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 56,99</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21,06; 42,34</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,79%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,22%</t>
+          <t>57,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>39,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54,02%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>58,6%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,33; 50,66</t>
+          <t>16,39; 52,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 39,72</t>
+          <t>13,32; 44,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 55,69</t>
+          <t>26,99; 73,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,07; 55,83</t>
+          <t>46,2; 86,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,47; 66,87</t>
+          <t>31,26; 58,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,88; 70,04</t>
+          <t>45,2; 70,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,0; 49,57</t>
+          <t>45,5; 72,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,88; 50,28</t>
+          <t>32,6; 59,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,16; 59,32</t>
+          <t>28,01; 51,16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,88; 53,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38,7; 67,28</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45,63; 73,79</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,06%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>61,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,65%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>55,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,26%</t>
+          <t>58,22%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>62,56%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51,83%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,19; 63,28</t>
+          <t>35,37; 60,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,86; 58,14</t>
+          <t>36,19; 61,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,92; 70,43</t>
+          <t>46,55; 73,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,94; 68,28</t>
+          <t>34,25; 59,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,05; 70,21</t>
+          <t>53,99; 73,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,08; 70,73</t>
+          <t>54,5; 73,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,71; 63,12</t>
+          <t>53,57; 72,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,41; 61,21</t>
+          <t>44,26; 65,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,16; 68,11</t>
+          <t>50,0; 65,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>50,85; 66,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>53,92; 69,66</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>43,25; 60,68</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>47,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>67,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>64,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>62,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>61,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57,96%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53,51%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,87; 58,07</t>
+          <t>43,56; 65,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,92; 59,09</t>
+          <t>34,81; 58,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,54; 61,46</t>
+          <t>39,46; 61,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,28; 71,49</t>
+          <t>32,78; 54,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,93; 68,83</t>
+          <t>57,01; 75,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,41; 69,71</t>
+          <t>50,38; 69,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,16; 63,78</t>
+          <t>55,14; 73,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,97; 62,33</t>
+          <t>53,44; 71,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,37; 63,16</t>
+          <t>54,14; 68,32</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47,33; 61,14</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>50,78; 65,0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46,45; 61,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,17%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>70,27%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>64,15%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>62,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>61,79%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66,15%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>64,85%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54,29%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,13; 71,29</t>
+          <t>46,34; 71,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,22; 66,58</t>
+          <t>53,69; 77,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,06; 67,07</t>
+          <t>53,91; 77,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,64; 76,98</t>
+          <t>38,89; 64,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,82; 78,36</t>
+          <t>50,73; 77,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,16; 73,01</t>
+          <t>54,93; 80,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,77; 71,41</t>
+          <t>48,03; 74,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,58; 69,86</t>
+          <t>43,27; 71,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,98; 67,0</t>
+          <t>52,77; 71,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56,52; 74,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>55,81; 73,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44,9; 63,35</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>67,93%</t>
+          <t>66,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>66,83%</t>
+          <t>53,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>73,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,56%</t>
+          <t>76,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>68,22%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>60,8%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72,06%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>49,05%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,13; 65,37</t>
+          <t>45,69; 75,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,19; 70,76</t>
+          <t>36,04; 66,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,95; 77,36</t>
+          <t>51,64; 80,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>54,31; 75,57</t>
+          <t>36,66; 69,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,34; 65,62</t>
+          <t>58,68; 84,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,89; 87,61</t>
+          <t>53,97; 81,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,36; 68,95</t>
+          <t>62,23; 86,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,28; 65,28</t>
+          <t>27,83; 63,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,4; 82,98</t>
+          <t>57,57; 78,34</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>50,22; 71,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>61,27; 81,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36,42; 61,28</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>60,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>55,16%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>54,49%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58,65%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50,48%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,86; 52,92</t>
+          <t>41,16; 55,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,7; 50,16</t>
+          <t>39,51; 52,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,25; 55,57</t>
+          <t>45,64; 60,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,2; 63,04</t>
+          <t>41,74; 57,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>57,04; 65,48</t>
+          <t>55,62; 65,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,29; 68,9</t>
+          <t>57,15; 67,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,83; 57,08</t>
+          <t>58,13; 68,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,63; 56,83</t>
+          <t>46,07; 57,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>53,61; 60,9</t>
+          <t>50,92; 59,25</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>49,95; 58,57</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>54,03; 62,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>45,66; 56,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>36574</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36435</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42039</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32123</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56604</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67924</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>66347</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>58975</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>93178</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>104359</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>108386</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>91098</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20652; 55329</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20548; 57337</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21793; 67779</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13117; 57776</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>38542; 74987</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>49212; 84952</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47980; 84934</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37223; 81653</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>67097; 119074</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75731; 129260</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>81902; 142516</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>61350; 123346</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55826</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39799</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>76172</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>154728</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75283</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>72680</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75400</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>73835</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>131109</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>112479</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>151572</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>228563</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>27001; 86013</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19099; 63276</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>41636; 113621</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>105184; 197447</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51615; 96800</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>57271; 88987</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>57470; 91863</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>52941; 96184</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>92392; 168740</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>77997; 144211</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>108590; 188792</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>177980; 287816</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>77808</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>67116</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>84348</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>84220</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>170271</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>135510</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>127165</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>133427</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>248079</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>202626</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>211513</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>217648</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>57323; 98482</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48627; 83023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>64077; 100971</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>61735; 108039</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>142577; 193980</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>114096; 154057</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>107389; 145743</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>106100; 156717</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>213073; 281191</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>174792; 227840</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>182301; 235527</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>181642; 254842</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>103233</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>75812</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>79177</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>88039</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>147379</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>112985</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>110401</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>133567</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>250612</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>188797</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>189578</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>221607</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>81321; 122457</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>56119; 93620</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>61648; 96152</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>66030; 110608</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>124504; 164436</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>93666; 128711</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>94214; 125933</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>113686; 151578</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>219299; 276722</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>164297; 212251</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>166073; 212603</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>192358; 252636</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>92436</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>86399</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>82347</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>78458</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>76631</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>63029</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>57632</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>78794</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>169067</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>149428</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>139979</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>157251</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>72944; 113155</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>70906; 102573</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66408; 95458</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>59353; 98746</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58951; 89806</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>51533; 75102</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44508; 69175</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>59299; 97612</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>144403; 194448</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>127664; 168055</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>120474; 158701</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>130075; 183496</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>66747</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>44872</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>59925</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>73956</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>101713</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>72144</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>84734</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>95410</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>168459</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>117017</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>144660</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>169367</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>49943; 82523</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>31478; 58034</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>46549; 72997</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>50531; 95710</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>80743; 116876</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>56740; 85221</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>68832; 95885</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>57753; 130719</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>142140; 193439</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>96656; 137377</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>123000; 162810</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>125767; 211620</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>432624</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>350434</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>424009</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>511525</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>627881</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>524271</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>521679</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>574009</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1060505</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>874704</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>945688</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1085533</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>365167; 488166</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>301873; 398258</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>360087; 478414</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>436452; 599898</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>575896; 678228</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>480633; 563539</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>478644; 560842</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>509046; 637504</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>978998; 1139136</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>801725; 940077</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>871127; 1010425</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>981907; 1208030</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>